--- a/DRIVER_SHEET/DriverSheet.xlsx
+++ b/DRIVER_SHEET/DriverSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -52,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,7 +293,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -328,7 +327,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,12 +502,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -521,7 +519,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -544,7 +542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -563,7 +561,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
